--- a/Linux/DeviceDrivers/Document(important)/12.字符设备.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/12.字符设备.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95887786-9BC4-4540-846F-3D33D47AF5FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856BA9B4-FCCB-491C-A404-C4BA01122422}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cdev_hc" sheetId="12" r:id="rId1"/>
     <sheet name="cdev_seq" sheetId="14" r:id="rId2"/>
+    <sheet name="cdev_sam" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
   <si>
     <t>.h相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +630,305 @@
       </rPr>
       <t>中</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>################################ cdev ################################</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申请设备号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static dev_t test_cdev_no = 0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alloc_chrdev_region(&amp;test_cdev_no, 0, 1, "test_cdev");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建字符设备</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int test_cdev_open(struct inode *inode, struct file *file)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ...</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>static int test_cdev_release(struct inode *inode, struct file *file)</t>
+  </si>
+  <si>
+    <t>static ssize_t test_cdev_read(struct file *filp, char *buf, size_t len, loff_t *off)</t>
+  </si>
+  <si>
+    <t>static ssize_t ylmcdev_write(struct file *filp, const char *buf, size_t len, loff_t *off)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .owner = THIS_MODULE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .write = test_cdev_write,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .read = test_cdev_read,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .open = test_cdev_open,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .release = test_cdev_release,</t>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static struct file_operations test_cdev_fops = {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct cdev test_cdev;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct cdev *test_cdevp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_cdevp = cdev_alloc();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_cdevp-&gt;owner = THIS_MODULE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_cdevp-&gt;ops = &amp;test_cdev_fops;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdev_init(&amp;test_cdev, &amp;test_cdev_fops);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_cdev.owner = THIS_MODULE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加字符设备</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdev_add(test_cdevp, test_cdev_no, 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct class *test_cdev_classp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_cdev_classp = class_create(THIS_MODULE, "test_cdev");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建字符设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>device</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建字符设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_create(test_cdev_classp, NULL, test_cdev_no, NULL, "test_cdev");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销毁字符设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>device</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_destroy(test_cdev_classp, test_cdev_no);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销毁字符设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_destroy(test_cdev_classp);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除字符设备</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdev_del(test_cdevp);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注销设备号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unregister_chrdev_region(test_cdev_no, 1);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -822,6 +1122,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1105,7 +1406,7 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:BZ51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AZ32" sqref="AZ32"/>
     </sheetView>
   </sheetViews>
@@ -4823,4 +5124,284 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0215F8AF-85E3-4638-A1C1-9177F63BF4EE}">
+  <dimension ref="B2:D67"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO25" sqref="AO25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.77734375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>